--- a/models/Industrials/3/report_rand_for.xlsx
+++ b/models/Industrials/3/report_rand_for.xlsx
@@ -32,7 +32,7 @@
     <t>min_samples_split</t>
   </si>
   <si>
-    <t>gini</t>
+    <t>entropy</t>
   </si>
   <si>
     <t>Bear</t>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -519,31 +519,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D2">
-        <v>0.07843137254901961</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E2">
-        <v>0.1142857142857143</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="F2">
-        <v>0.5054945054945055</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="G2">
-        <v>0.2650602409638554</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="H2">
         <v>0.3197969543147208</v>
       </c>
       <c r="I2">
-        <v>0.1785633235668671</v>
+        <v>0.1721994846921602</v>
       </c>
       <c r="J2">
-        <v>0.2847408533248939</v>
+        <v>0.2821155443152694</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -551,31 +551,31 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D3">
-        <v>0.2857142857142857</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E3">
-        <v>0.1052631578947368</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3">
-        <v>0.4646464646464646</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="G3">
-        <v>0.180327868852459</v>
+        <v>0.4424778761061947</v>
       </c>
       <c r="H3">
         <v>0.3197969543147208</v>
       </c>
       <c r="I3">
-        <v>0.2096956665550281</v>
+        <v>0.1985087472090031</v>
       </c>
       <c r="J3">
-        <v>0.319851426397854</v>
+        <v>0.3052562514957082</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -583,28 +583,28 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D4">
-        <v>0.04545454545454546</v>
+        <v>0.1875</v>
       </c>
       <c r="E4">
-        <v>0.125</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="F4">
-        <v>0.5542168674698795</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="H4">
         <v>0.3197969543147208</v>
       </c>
       <c r="I4">
-        <v>0.2160166640588327</v>
+        <v>0.1944221691962656</v>
       </c>
       <c r="J4">
         <v>0.3197969543147208</v>
@@ -615,22 +615,22 @@
         <v>18</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>28</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>44</v>
       </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
       <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
         <v>83</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>197</v>
